--- a/data/trans_orig/ED_ADU-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Provincia-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad adulto elegido</t>
+          <t>Edad media del adulto entrevistado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>43,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,56</t>
+          <t>46,67</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>45,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>51,23</t>
+          <t>50,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44,41</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>49,92</t>
+          <t>48,44</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,39; 45,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,94; 50,8</t>
+          <t>43,5; 49,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,12; 47,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,24; 52,94</t>
+          <t>47,95; 52,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,88; 45,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,35; 51,56</t>
+          <t>46,44; 50,23</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,96</t>
+          <t>45,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,54</t>
+          <t>51,36</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>49,33</t>
+          <t>48,59</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,83; 49,27</t>
+          <t>43,48; 48,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,88; 53,15</t>
+          <t>49,7; 52,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,01; 50,67</t>
+          <t>47,11; 49,98</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50,14</t>
+          <t>49,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,62</t>
+          <t>50,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>50,4</t>
+          <t>49,96</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,06; 52,65</t>
+          <t>47,38; 52,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,64; 52,56</t>
+          <t>48,41; 52,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,93; 51,9</t>
+          <t>48,46; 51,45</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,56</t>
+          <t>45,42</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,24</t>
+          <t>50,65</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,53</t>
+          <t>47,37</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,36</t>
+          <t>48,46</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>45,55</t>
+          <t>46,42</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>50,74</t>
+          <t>49,33</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,23; 46,06</t>
+          <t>43,59; 47,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,36; 53,66</t>
+          <t>47,4; 53,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,15; 47,97</t>
+          <t>45,39; 49,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,85; 52,36</t>
+          <t>42,69; 51,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,61; 46,53</t>
+          <t>45,09; 47,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,69; 52,24</t>
+          <t>45,17; 51,48</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>49,06</t>
+          <t>49,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,3</t>
+          <t>50,7</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>50,33</t>
+          <t>50,06</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,45; 51,35</t>
+          <t>46,66; 51,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,3; 53,76</t>
+          <t>46,5; 53,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>48,58; 52,06</t>
+          <t>47,55; 51,86</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49,59</t>
+          <t>49,16</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>49,65</t>
+          <t>49,64</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>49,62</t>
+          <t>49,4</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>47,39; 51,73</t>
+          <t>46,92; 51,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,27; 51,76</t>
+          <t>47,3; 51,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>48,04; 51,12</t>
+          <t>47,79; 50,87</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>49,7</t>
+          <t>48,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>51,74</t>
+          <t>53,45</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>50,84</t>
+          <t>51,51</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>47,64; 51,38</t>
+          <t>46,7; 50,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,65; 57,51</t>
+          <t>48,58; 60,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>49,0; 54,58</t>
+          <t>48,59; 56,98</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>48,67</t>
+          <t>49,33</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>50,48</t>
+          <t>50,88</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>49,58</t>
+          <t>50,0</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,23; 50,09</t>
+          <t>47,85; 50,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,09; 51,8</t>
+          <t>49,56; 52,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>48,6; 50,52</t>
+          <t>49,11; 50,82</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>49,07</t>
+          <t>48,59</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>50,95</t>
+          <t>51,04</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>50,07</t>
+          <t>49,86</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>48,34; 49,78</t>
+          <t>47,76; 49,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>50,13; 52,38</t>
+          <t>49,75; 53,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>49,52; 50,89</t>
+          <t>49,15; 51,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ED_ADU-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,76; 43,83</t>
+          <t>39,58; 43,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,39; 45,68</t>
+          <t>41,47; 45,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,62; 45,89</t>
+          <t>41,7; 45,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,5; 49,33</t>
+          <t>43,31; 49,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>41,31; 46,01</t>
+          <t>41,32; 45,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,12; 47,55</t>
+          <t>43,28; 47,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,64; 48,25</t>
+          <t>43,88; 48,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,95; 52,19</t>
+          <t>48,1; 52,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,0; 44,13</t>
+          <t>41,14; 44,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>42,88; 45,91</t>
+          <t>43,03; 46,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43,43; 46,3</t>
+          <t>43,33; 46,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>46,44; 50,23</t>
+          <t>46,52; 50,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42,03; 45,22</t>
+          <t>42,03; 45,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,34; 46,34</t>
+          <t>43,11; 46,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,35; 47,51</t>
+          <t>44,47; 47,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,48; 48,36</t>
+          <t>43,48; 48,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,84; 47,08</t>
+          <t>43,63; 47,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,75; 48,78</t>
+          <t>45,72; 48,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,57; 49,96</t>
+          <t>46,51; 50,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,7; 52,91</t>
+          <t>49,63; 52,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,48; 45,71</t>
+          <t>43,36; 45,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>44,84; 47,19</t>
+          <t>44,82; 47,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46,1; 48,38</t>
+          <t>46,09; 48,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,11; 49,98</t>
+          <t>47,08; 49,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,31; 45,49</t>
+          <t>41,72; 45,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,11; 47,21</t>
+          <t>42,98; 47,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,52; 49,41</t>
+          <t>45,54; 49,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,38; 52,1</t>
+          <t>47,36; 51,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,03; 50,13</t>
+          <t>45,91; 49,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>45,47; 49,83</t>
+          <t>45,79; 49,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,03; 51,14</t>
+          <t>47,24; 51,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,41; 52,28</t>
+          <t>48,34; 52,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>44,35; 47,28</t>
+          <t>44,44; 47,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,04; 47,96</t>
+          <t>44,93; 47,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>46,91; 49,75</t>
+          <t>46,98; 49,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,46; 51,45</t>
+          <t>48,37; 51,51</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,87; 44,35</t>
+          <t>40,76; 44,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,59; 47,47</t>
+          <t>43,47; 47,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,39; 48,04</t>
+          <t>44,37; 48,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>47,4; 53,24</t>
+          <t>47,79; 53,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,7; 47,47</t>
+          <t>43,28; 47,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,39; 49,21</t>
+          <t>45,55; 49,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,36; 51,65</t>
+          <t>47,27; 51,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,69; 51,46</t>
+          <t>42,92; 51,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,73; 45,33</t>
+          <t>42,69; 45,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,09; 47,78</t>
+          <t>45,1; 47,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>46,37; 49,26</t>
+          <t>46,37; 49,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>45,17; 51,48</t>
+          <t>45,41; 51,6</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,8; 45,44</t>
+          <t>40,58; 45,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,02; 46,76</t>
+          <t>41,99; 47,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,08; 49,51</t>
+          <t>45,08; 49,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,66; 51,39</t>
+          <t>46,6; 51,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>41,91; 47,31</t>
+          <t>41,72; 47,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,43; 49,5</t>
+          <t>44,46; 49,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,2; 53,15</t>
+          <t>48,29; 53,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,5; 53,72</t>
+          <t>46,81; 53,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42,02; 45,62</t>
+          <t>42,05; 45,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>43,82; 47,45</t>
+          <t>43,72; 47,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,17; 50,56</t>
+          <t>47,34; 50,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>47,55; 51,86</t>
+          <t>47,52; 51,74</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>41,85; 46,46</t>
+          <t>41,79; 46,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,54; 48,2</t>
+          <t>43,22; 47,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,1; 49,37</t>
+          <t>44,84; 49,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>46,92; 51,34</t>
+          <t>47,15; 51,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,97; 49,94</t>
+          <t>44,78; 49,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>46,49; 51,03</t>
+          <t>46,52; 50,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,54; 51,51</t>
+          <t>46,7; 51,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>47,3; 51,75</t>
+          <t>47,45; 51,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,03; 47,27</t>
+          <t>44,09; 47,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>45,36; 48,84</t>
+          <t>45,44; 48,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>46,51; 49,72</t>
+          <t>46,33; 49,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>47,79; 50,87</t>
+          <t>47,85; 50,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,74; 45,63</t>
+          <t>42,7; 45,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,47; 46,32</t>
+          <t>43,52; 46,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,12; 46,87</t>
+          <t>44,1; 47,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>46,7; 50,67</t>
+          <t>46,84; 50,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,62; 47,49</t>
+          <t>44,63; 47,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,57; 48,39</t>
+          <t>45,45; 48,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>45,81; 48,81</t>
+          <t>46,02; 48,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,58; 60,51</t>
+          <t>48,77; 59,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,12; 46,09</t>
+          <t>44,15; 46,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,99; 47,02</t>
+          <t>45,06; 47,02</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>45,54; 47,52</t>
+          <t>45,49; 47,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>48,59; 56,98</t>
+          <t>48,56; 57,48</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,38; 44,9</t>
+          <t>42,34; 44,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,19; 45,72</t>
+          <t>43,24; 45,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>44,79; 47,36</t>
+          <t>44,77; 47,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>47,85; 50,65</t>
+          <t>47,95; 50,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>44,35; 46,88</t>
+          <t>44,4; 46,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>45,14; 47,81</t>
+          <t>45,27; 47,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>46,76; 49,38</t>
+          <t>46,72; 49,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,56; 52,14</t>
+          <t>49,64; 52,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>43,78; 45,55</t>
+          <t>43,67; 45,59</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>44,6; 46,33</t>
+          <t>44,65; 46,56</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>46,09; 48,01</t>
+          <t>46,12; 47,96</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>49,11; 50,82</t>
+          <t>49,07; 50,84</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>42,8; 44,07</t>
+          <t>42,78; 44,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>44,1; 45,4</t>
+          <t>44,12; 45,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45,4; 46,62</t>
+          <t>45,43; 46,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>47,76; 49,42</t>
+          <t>47,74; 49,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,18; 46,42</t>
+          <t>45,13; 46,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>46,43; 47,68</t>
+          <t>46,41; 47,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>47,6; 48,94</t>
+          <t>47,57; 48,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>49,75; 53,81</t>
+          <t>49,73; 53,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>44,13; 45,06</t>
+          <t>44,15; 45,09</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>45,56; 46,41</t>
+          <t>45,5; 46,38</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>46,76; 47,64</t>
+          <t>46,71; 47,6</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>49,15; 51,38</t>
+          <t>49,09; 51,75</t>
         </is>
       </c>
     </row>
